--- a/data_analysis/Fig_12_Target_Actual_reliance.xlsx
+++ b/data_analysis/Fig_12_Target_Actual_reliance.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD0BEFF-228A-E846-96DF-46752867B100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E356CF7-219E-2947-90A1-6BAE74826B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="24700" windowHeight="16940" xr2:uid="{1B86E16B-DBE4-8649-9CC7-10B89013F0DD}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="24700" windowHeight="16940" xr2:uid="{1B86E16B-DBE4-8649-9CC7-10B89013F0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="TP_Target_reliance_gilt_yield" sheetId="9" r:id="rId1"/>
-    <sheet name="Target_reliance_gilt_yield" sheetId="6" r:id="rId2"/>
-    <sheet name="AffRC_gilt_yield" sheetId="10" r:id="rId3"/>
-    <sheet name="Target_reliance_date" sheetId="7" r:id="rId4"/>
-    <sheet name="Actual_reliance_date" sheetId="5" r:id="rId5"/>
-    <sheet name="Actual_reliance_gilt_yield" sheetId="4" r:id="rId6"/>
-    <sheet name="Data_quart" sheetId="1" r:id="rId7"/>
+    <sheet name="Data_quart" sheetId="1" r:id="rId2"/>
+    <sheet name="Target_reliance_gilt_yield" sheetId="6" r:id="rId3"/>
+    <sheet name="AffRC_gilt_yield" sheetId="10" r:id="rId4"/>
+    <sheet name="Target_reliance_date" sheetId="7" r:id="rId5"/>
+    <sheet name="Actual_reliance_date" sheetId="5" r:id="rId6"/>
+    <sheet name="Actual_reliance_gilt_yield" sheetId="4" r:id="rId7"/>
     <sheet name="Gilt_yields" sheetId="3" r:id="rId8"/>
     <sheet name="Raw_Data_month" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
+    <sheet name="IRMF" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Gilt_yields!$A$1:$D$16</definedName>
@@ -185,9 +185,6 @@
     <t>TP Deficit</t>
   </si>
   <si>
-    <t>Aff Ratio =SS Deficit / 10% Payroll</t>
-  </si>
-  <si>
     <t>USS Gilt Yield</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>Gilts + 0.78%</t>
   </si>
   <si>
-    <t xml:space="preserve">Gilts + 1.2% </t>
-  </si>
-  <si>
     <t>Gilts + 1.22%</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
   </si>
   <si>
     <t>Nominal</t>
+  </si>
+  <si>
+    <t>all data from USS Monitoring</t>
+  </si>
+  <si>
+    <t>https://www.uss.co.uk/about-us/valuation-and-funding/our-valuations</t>
   </si>
 </sst>
 </file>
@@ -384,42 +384,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -435,41 +405,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1113,24 +1082,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1421,24 +1372,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1679,24 +1612,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,6 +2016,482 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AffRC DR Nominal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data_quart!$AI$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nominal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12516119860017497"/>
+                  <c:y val="0.45331000291630213"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.9226x + 0.0103</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9696</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data_quart!$Q$4:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data_quart!$AI$4:$AI$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5700000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9700000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEF8-2045-A9B4-1719931C23A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343900224"/>
+        <c:axId val="343900656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343900224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343900656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343900656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343900224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2719,24 +3110,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2961,24 +3334,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3190,24 +3545,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,7 +3962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4238,24 +4575,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4480,24 +4799,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4675,7 +4976,43 @@
             <c:forward val="0.01"/>
             <c:backward val="0.01"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16929591452358558"/>
+                  <c:y val="-0.33938219312488088"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4709,24 +5046,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,7 +5467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5335,24 +5654,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5388,9 +5689,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>32.774999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,24 +5771,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5526,9 +5806,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>36.225000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5623,24 +5900,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5676,24 +5935,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>26.399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,7 +6298,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6228,24 +6469,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6361,24 +6584,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6494,24 +6699,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6547,24 +6734,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-30.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>-34.5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>-36</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>-43.3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>-31.8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>-34.4</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>-35.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,24 +6814,6 @@
                 <c:pt idx="8">
                   <c:v>44440</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44166</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44075</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6698,24 +6849,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3.7000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>-15.5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>-15.7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>-27.9</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>-23.3</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>-20.2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>-14.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7017,7 +7150,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -7176,24 +7309,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7323,24 +7438,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7456,24 +7553,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7509,24 +7588,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-30.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>-34.5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>-36</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>-43.3</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>-31.8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>-34.4</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>-35.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7607,24 +7668,6 @@
                 <c:pt idx="8">
                   <c:v>1.3000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7660,24 +7703,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-3.7000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>-15.5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>-15.7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>-27.9</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>-23.3</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>-20.2</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>-14.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7973,948 +7998,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AffRC DR Nominal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_quart!$AI$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nominal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.12516119860017497"/>
-                  <c:y val="0.45331000291630213"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 0.9226x + 0.0103</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1600" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0.9696</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data_quart!$Q$4:$Q$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data_quart!$AI$4:$AI$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>5.2499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7899999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6800000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9200000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5700000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5700000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9700000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEF8-2045-A9B4-1719931C23A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="343900224"/>
-        <c:axId val="343900656"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="343900224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343900656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="343900656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343900224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>AffRC DR Nominal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data_quart!$AI$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nominal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20361373578302713"/>
-                  <c:y val="0.18884186351706037"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Data_quart!$Q$4:$Q$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.9999999999999993E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Data_quart!$G$4:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>"£"#,##0.0</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0" formatCode="&quot;£&quot;#,##0">
-                  <c:v>25.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="&quot;£&quot;#,##0">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="&quot;£&quot;#,##0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="&quot;£&quot;#,##0">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="&quot;£&quot;#,##0">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="&quot;£&quot;#,##0">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="&quot;£&quot;#,##0">
-                  <c:v>34.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CD46-484C-B5B4-8AF8EA5165EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="343900224"/>
-        <c:axId val="343900656"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="343900224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343900656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="343900656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;£&quot;#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343900224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9195,46 +8278,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12847,527 +11890,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4F8A3690-822A-9944-9AF3-C85D3DCBDD48}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13378,7 +11905,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3667098F-C125-5740-A16D-F4B814D81FA5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13389,7 +11916,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F017F5B6-DF7C-014E-9104-80E70D26028D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13400,7 +11927,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A3F1BC82-6122-2545-935D-73C02414A1F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13411,7 +11938,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{559789DF-C3F6-634F-AD66-E3A8E04FACF4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13422,7 +11949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{87AD7583-1E05-774D-A4F1-8DADB55518C8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13464,171 +11991,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ACE27F-181A-470A-0AF5-0230DD860518}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB5D6D8-D90A-1CC0-B98E-2D4ABADD0165}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17936A3B-D1F5-2150-6B03-93500A572BE9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12B097F-A2E3-9FBE-DCA8-67E2D8D2151C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310077" cy="6076462"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED430BE-2673-8735-F72A-93BF90A56DA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -13665,30 +12027,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9310077" cy="6076462"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9E2B04-0992-3441-B165-41D3B616AED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3ACE27F-181A-470A-0AF5-0230DD860518}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13697,12 +12054,144 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9310077" cy="6076462"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB5D6D8-D90A-1CC0-B98E-2D4ABADD0165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17936A3B-D1F5-2150-6B03-93500A572BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12B097F-A2E3-9FBE-DCA8-67E2D8D2151C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6067778"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED430BE-2673-8735-F72A-93BF90A56DA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14158,1387 +12647,1202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB49776-1664-4B4C-8E7B-9C6A5634E2A5}">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="14" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="13" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="16.6640625" style="9" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="11"/>
+    <col min="9" max="9" width="10.83203125" style="12"/>
+    <col min="10" max="13" width="10.83203125" style="11"/>
+    <col min="14" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:35" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="20" t="s">
+      <c r="W2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="22"/>
+      <c r="Z2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25"/>
-      <c r="Z2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20" t="str">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19" t="str">
         <f>S3</f>
         <v xml:space="preserve">SfS liabs + Transition Risk - TP liabs </v>
       </c>
-      <c r="W3" s="17" t="s">
+      <c r="W3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="17" t="s">
+      <c r="Z3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AE3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="17" t="s">
-        <v>92</v>
+      <c r="AG3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>45170</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="10">
         <v>67.5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>68.8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>58.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>24</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>27</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="11">
         <f>AVERAGE(E4:F4)</f>
         <v>25.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <f>G4/0.1*0.15</f>
         <v>38.25</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K12" si="0">-(H4-$B$1)</f>
         <v>-38.25</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="11">
         <f t="shared" ref="L4:L12" si="1">0.95*G4</f>
         <v>24.224999999999998</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="11">
         <f t="shared" ref="M4:M12" si="2">1.05*G4</f>
         <v>26.775000000000002</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="10">
         <f t="shared" ref="N4:N12" si="3">-(D4-C4)</f>
         <v>10</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <f t="shared" ref="O4:O12" si="4">-(B4-C4)</f>
         <v>1.2999999999999972</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="10">
         <f t="shared" ref="P4:P18" si="5">B4-D4</f>
         <v>8.7000000000000028</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="16">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="11">
         <v>8</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="10">
         <f t="shared" ref="S4:S5" si="6">P4+R4</f>
         <v>16.700000000000003</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="10">
         <v>16.7</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="10">
         <f>S4</f>
         <v>16.700000000000003</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="11">
         <f>L4</f>
         <v>24.224999999999998</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="11">
         <f>M4</f>
         <v>26.775000000000002</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="10">
         <f>D4</f>
         <v>58.8</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="10">
         <f>B4+R4-0.95*G4</f>
         <v>51.275000000000006</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="15">
         <f>B4+R4-1.05*G4</f>
         <v>48.724999999999994</v>
       </c>
-      <c r="AG4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH4" s="6">
+      <c r="AG4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="16">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="16">
         <f>AH4+Q4</f>
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>45078</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="10">
         <v>71.8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>70.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="10">
         <v>62.3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>25</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>28</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="10">
         <f>F5/1.05</f>
         <v>26.666666666666664</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <f t="shared" ref="H5:H18" si="7">G5/0.1*0.15</f>
         <v>39.999999999999993</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="11">
         <f t="shared" ref="J5:J11" si="8">J4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>-39.999999999999993</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="11">
         <f t="shared" si="1"/>
         <v>25.333333333333329</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="11">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="10">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="10">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="16">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="13">
         <v>8</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="10">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="10">
         <v>17.5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="10">
         <f t="shared" ref="U5:U11" si="9">S5</f>
         <v>17.5</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="11">
         <f t="shared" ref="W5:W12" si="10">L5</f>
         <v>25.333333333333329</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="11">
         <f t="shared" ref="X5:X12" si="11">M5</f>
         <v>28</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="10">
         <f t="shared" ref="Z5:Z12" si="12">D5</f>
         <v>62.3</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="10">
         <f t="shared" ref="AA5:AA12" si="13">B5+R5-0.95*G5</f>
         <v>54.466666666666669</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="15">
         <f t="shared" ref="AB5:AB12" si="14">B5+R5-1.05*G5</f>
         <v>51.8</v>
       </c>
-      <c r="AG5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH5" s="6">
+      <c r="AG5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="16">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="16">
         <f t="shared" ref="AI5:AI18" si="15">AH5+Q5</f>
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>44986</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="10">
         <f>Raw_Data_month!C38</f>
         <v>77.5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <v>73.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="10">
         <f>Raw_Data_month!B38</f>
         <v>66.099999999999994</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>27</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="10">
         <f>F6/1.05</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <f t="shared" si="7"/>
         <v>42.857142857142847</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>-42.857142857142847</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>27.142857142857139</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="11">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="10">
         <f t="shared" si="3"/>
         <v>7.6000000000000085</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="10">
         <f t="shared" si="4"/>
         <v>-3.7999999999999972</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="10">
         <f t="shared" si="5"/>
         <v>11.400000000000006</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="16">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="13">
         <f>Raw_Data_month!F38</f>
         <v>8</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="10">
         <f>P6+R6</f>
         <v>19.400000000000006</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="10">
         <v>20.5</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="10">
         <f t="shared" si="9"/>
         <v>19.400000000000006</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="11">
         <f t="shared" si="10"/>
         <v>27.142857142857139</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="11">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="10">
         <f t="shared" si="12"/>
         <v>66.099999999999994</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="10">
         <f t="shared" si="13"/>
         <v>58.357142857142861</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="15">
         <f t="shared" si="14"/>
         <v>55.5</v>
       </c>
-      <c r="AG6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="6">
+      <c r="AG6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="16">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="16">
         <f t="shared" si="15"/>
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>44896</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <f>Raw_Data_month!C35</f>
         <v>76.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="10">
         <v>71.400000000000006</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="10">
         <f>Raw_Data_month!B35</f>
         <v>66.400000000000006</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="11">
         <v>22</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>25</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <f t="shared" ref="G7:G12" si="16">AVERAGE(E7:F7)</f>
         <v>23.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <f t="shared" si="7"/>
         <v>35.25</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>-35.25</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>22.324999999999999</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="11">
         <f t="shared" si="2"/>
         <v>24.675000000000001</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="10">
         <f t="shared" si="4"/>
         <v>-4.7999999999999972</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="10">
         <f t="shared" si="5"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="16">
         <v>3.9E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="13">
         <f>Raw_Data_month!F35</f>
         <v>7</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="10">
         <f t="shared" ref="S7:S17" si="17">P7+R7</f>
         <v>16.799999999999997</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="4">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
         <f t="shared" si="9"/>
         <v>16.799999999999997</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="11">
         <f t="shared" si="10"/>
         <v>22.324999999999999</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="11">
         <f t="shared" si="11"/>
         <v>24.675000000000001</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="10">
         <f t="shared" si="12"/>
         <v>66.400000000000006</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="10">
         <f t="shared" si="13"/>
         <v>60.875</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="15">
         <f t="shared" si="14"/>
         <v>58.525000000000006</v>
       </c>
-      <c r="AG7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH7" s="6">
+      <c r="AG7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="16">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="16">
         <f t="shared" si="15"/>
         <v>4.6800000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>44805</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="10">
         <f>Raw_Data_month!C32</f>
         <v>79.5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="10">
         <v>72.599999999999994</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="10">
         <f>Raw_Data_month!B32</f>
         <v>67</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>22</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="11">
         <v>24</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="11">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="11">
         <f t="shared" si="7"/>
         <v>34.5</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>-34.5</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>21.849999999999998</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="11">
         <f t="shared" si="2"/>
         <v>24.150000000000002</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="10">
         <f t="shared" si="3"/>
         <v>5.5999999999999943</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="10">
         <f t="shared" si="4"/>
         <v>-6.9000000000000057</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="10">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="16">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="13">
         <f>Raw_Data_month!F32</f>
         <v>7</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="10">
         <f t="shared" si="17"/>
         <v>19.5</v>
       </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="4">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
         <f t="shared" si="9"/>
         <v>19.5</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="11">
         <f t="shared" si="10"/>
         <v>21.849999999999998</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="11">
         <f t="shared" si="11"/>
         <v>24.150000000000002</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="10">
         <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="10">
         <f t="shared" si="13"/>
         <v>64.650000000000006</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="15">
         <f t="shared" si="14"/>
         <v>62.349999999999994</v>
       </c>
-      <c r="AG8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH8" s="6">
+      <c r="AG8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH8" s="16">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="16">
         <f t="shared" si="15"/>
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>44713</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="10">
         <f>Raw_Data_month!C29</f>
         <v>91.2</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>77.599999999999994</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="10">
         <f>Raw_Data_month!B29</f>
         <v>75.8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>26</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>29</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <f t="shared" si="16"/>
         <v>27.5</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <f t="shared" si="7"/>
         <v>41.25</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>-41.25</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>26.125</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="11">
         <f t="shared" si="2"/>
         <v>28.875</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="10">
         <f t="shared" si="3"/>
         <v>1.7999999999999972</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="10">
         <f t="shared" si="4"/>
         <v>-13.600000000000009</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="10">
         <f t="shared" si="5"/>
         <v>15.400000000000006</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="16">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="13">
         <f>Raw_Data_month!F29</f>
         <v>7</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="10">
         <f t="shared" si="17"/>
         <v>22.400000000000006</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="4">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <f t="shared" si="9"/>
         <v>22.400000000000006</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="11">
         <f t="shared" si="10"/>
         <v>26.125</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="11">
         <f t="shared" si="11"/>
         <v>28.875</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="10">
         <f t="shared" si="12"/>
         <v>75.8</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="10">
         <f t="shared" si="13"/>
         <v>72.075000000000003</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="15">
         <f t="shared" si="14"/>
         <v>69.325000000000003</v>
       </c>
-      <c r="AG9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH9" s="6">
+      <c r="AG9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH9" s="16">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="16">
         <f t="shared" si="15"/>
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>44621</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="10">
         <f>Raw_Data_month!C26</f>
         <v>115.4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <v>88.8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="10">
         <f>Raw_Data_month!B26</f>
         <v>90.4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>33</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>36</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="11">
         <f t="shared" si="16"/>
         <v>34.5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <f t="shared" si="7"/>
         <v>51.75</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>-51.75</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>32.774999999999999</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="11">
         <f t="shared" si="2"/>
         <v>36.225000000000001</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="10">
         <f t="shared" si="3"/>
         <v>-1.6000000000000085</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="10">
         <f t="shared" si="4"/>
         <v>-26.600000000000009</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="10">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="13">
         <f>Raw_Data_month!F26</f>
         <v>6</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="10">
         <f t="shared" si="17"/>
         <v>31</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="4">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="11">
         <f t="shared" si="10"/>
         <v>32.774999999999999</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="11">
         <f t="shared" si="11"/>
         <v>36.225000000000001</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="10">
         <f t="shared" si="12"/>
         <v>90.4</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="10">
         <f t="shared" si="13"/>
         <v>88.625</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="15">
         <f t="shared" si="14"/>
         <v>85.175000000000011</v>
       </c>
-      <c r="AG10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH10" s="6">
+      <c r="AG10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH10" s="16">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="16">
         <f t="shared" si="15"/>
         <v>2.5700000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>44531</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <f>Raw_Data_month!C23</f>
         <v>123.6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>92.2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="10">
         <f>Raw_Data_month!B23</f>
         <v>95.3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>34</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>37</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="11">
         <f t="shared" si="16"/>
         <v>35.5</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <f t="shared" si="7"/>
         <v>53.25</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>-53.25</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="11">
         <f t="shared" si="1"/>
         <v>33.725000000000001</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="11">
         <f t="shared" si="2"/>
         <v>37.274999999999999</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="10">
         <f t="shared" si="3"/>
         <v>-3.0999999999999943</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="10">
         <f t="shared" si="4"/>
         <v>-31.399999999999991</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="10">
         <f t="shared" si="5"/>
         <v>28.299999999999997</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="14">
         <f>Gilt_yields!D9</f>
         <v>0.01</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="13">
         <v>7</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="10">
         <f t="shared" si="17"/>
         <v>35.299999999999997</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="4">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
         <f t="shared" si="9"/>
         <v>35.299999999999997</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="11">
         <f t="shared" si="10"/>
         <v>33.725000000000001</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="11">
         <f t="shared" si="11"/>
         <v>37.274999999999999</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="10">
         <f t="shared" si="12"/>
         <v>95.3</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="10">
         <f t="shared" si="13"/>
         <v>96.875</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="15">
         <f t="shared" si="14"/>
         <v>93.324999999999989</v>
       </c>
-      <c r="AG11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH11" s="6">
+      <c r="AG11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH11" s="16">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="16">
         <f t="shared" si="15"/>
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="9">
         <v>44440</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="10">
         <f>Raw_Data_month!C20</f>
         <v>118.4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="10">
         <v>87.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="10">
         <f>Raw_Data_month!B20</f>
         <v>91.2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>33</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <v>36</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="11">
         <f t="shared" si="16"/>
         <v>34.5</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="11">
         <f t="shared" si="7"/>
         <v>51.75</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="11">
         <f t="shared" ref="J12" si="18">J11</f>
         <v>0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>-51.75</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>32.774999999999999</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="11">
         <f t="shared" si="2"/>
         <v>36.225000000000001</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="10">
         <f t="shared" si="3"/>
         <v>-3.7000000000000028</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="10">
         <f t="shared" si="4"/>
         <v>-30.900000000000006</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="10">
         <f t="shared" si="5"/>
         <v>27.200000000000003</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="14">
         <f>Gilt_yields!D10</f>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="13">
         <v>7</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="10">
         <f t="shared" si="17"/>
         <v>34.200000000000003</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="4">
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
         <f>S12</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="11">
         <f t="shared" si="10"/>
         <v>32.774999999999999</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="11">
         <f t="shared" si="11"/>
         <v>36.225000000000001</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="10">
         <f t="shared" si="12"/>
         <v>91.2</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="10">
         <f t="shared" si="13"/>
         <v>92.625</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="15">
         <f t="shared" si="14"/>
         <v>89.175000000000011</v>
       </c>
-      <c r="AG12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH12" s="6">
+      <c r="AG12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH12" s="16">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="16">
         <f t="shared" si="15"/>
         <v>1.9700000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
-        <v>44348</v>
-      </c>
-      <c r="B13" s="4">
-        <f>Raw_Data_month!C17</f>
-        <v>115.7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>85.3</v>
-      </c>
-      <c r="D13" s="4">
-        <f>Raw_Data_month!B17</f>
-        <v>89.7</v>
-      </c>
-      <c r="N13" s="2">
-        <v>-15.5</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-34.5</v>
-      </c>
-      <c r="P13" s="4">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="Q13" s="13">
-        <f>Gilt_yields!D11</f>
-        <v>1.1000000000000001E-2</v>
-      </c>
-      <c r="S13" s="7">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="24"/>
-      <c r="AI13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="14"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="15"/>
+      <c r="AI13" s="16"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>44256</v>
-      </c>
-      <c r="B14" s="4">
-        <f>Raw_Data_month!C14</f>
-        <v>111.3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="D14" s="4">
-        <f>Raw_Data_month!B14</f>
-        <v>86.3</v>
-      </c>
-      <c r="N14" s="2">
-        <v>-15.7</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-36</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="Q14" s="13">
-        <f>Gilt_yields!D12</f>
-        <v>1.3000000000000001E-2</v>
-      </c>
-      <c r="S14" s="7">
-        <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="T14" s="7"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="24"/>
-      <c r="AI14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="14"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="15"/>
+      <c r="AI14" s="16"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>44166</v>
-      </c>
-      <c r="B15" s="4">
-        <f>Raw_Data_month!C11</f>
-        <v>118</v>
-      </c>
-      <c r="C15" s="4">
-        <v>80.5</v>
-      </c>
-      <c r="D15" s="4">
-        <f>Raw_Data_month!B11</f>
-        <v>91.8</v>
-      </c>
-      <c r="N15" s="2">
-        <v>-27.9</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-43.3</v>
-      </c>
-      <c r="P15" s="4">
-        <f t="shared" si="5"/>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="Q15" s="13">
-        <f>Gilt_yields!D13</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S15" s="7">
-        <f t="shared" si="17"/>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="T15" s="7"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="24"/>
-      <c r="AI15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="14"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="15"/>
+      <c r="AI15" s="16"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>44075</v>
-      </c>
-      <c r="B16" s="4">
-        <f>Raw_Data_month!C8</f>
-        <v>116.1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="D16" s="4">
-        <f>Raw_Data_month!B8</f>
-        <v>89.7</v>
-      </c>
-      <c r="N16" s="2">
-        <v>-23.3</v>
-      </c>
-      <c r="O16" s="1">
-        <v>-31.8</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="5"/>
-        <v>26.399999999999991</v>
-      </c>
-      <c r="Q16" s="13">
-        <f>Gilt_yields!D14</f>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="S16" s="7">
-        <f t="shared" si="17"/>
-        <v>26.399999999999991</v>
-      </c>
-      <c r="T16" s="7"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="24"/>
-      <c r="AI16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="14"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="15"/>
+      <c r="AI16" s="16"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>43983</v>
-      </c>
-      <c r="B17" s="4">
-        <f>Raw_Data_month!C5</f>
-        <v>116.4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>74.2</v>
-      </c>
-      <c r="D17" s="4">
-        <f>Raw_Data_month!B5</f>
-        <v>89.8</v>
-      </c>
-      <c r="N17" s="2">
-        <v>-20.2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>-34.4</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="5"/>
-        <v>26.600000000000009</v>
-      </c>
-      <c r="Q17" s="13">
-        <f>Gilt_yields!D15</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="S17" s="7">
-        <f t="shared" si="17"/>
-        <v>26.600000000000009</v>
-      </c>
-      <c r="T17" s="7"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="24"/>
-      <c r="AI17" s="6"/>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="15"/>
+      <c r="AI17" s="16"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>43891</v>
-      </c>
-      <c r="B18" s="4">
-        <f>Raw_Data_month!C2</f>
-        <v>102</v>
-      </c>
-      <c r="C18" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="D18" s="4">
-        <f>Raw_Data_month!B2</f>
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30</v>
-      </c>
-      <c r="F18" s="5">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
-        <f>0.95*G18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="5">
-        <f>1.05*G18</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>-14.1</v>
-      </c>
-      <c r="O18" s="8">
-        <v>-35.5</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="5"/>
-        <v>21.400000000000006</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>Gilt_yields!D16</f>
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="R18">
-        <f>Raw_Data_month!F2</f>
-        <v>8</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" ref="S18" si="19">P18+R18</f>
-        <v>29.400000000000006</v>
-      </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="4"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="24"/>
-      <c r="AG18" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AI18" s="6">
-        <f t="shared" si="15"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="I24" s="3" t="s">
-        <v>45</v>
-      </c>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="14"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="15"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15564,17 +13868,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -15592,188 +13896,188 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="1">
         <v>45078</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="2">
         <v>0.156</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="2">
         <v>0.193</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="1">
         <v>44986</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="2">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="2">
         <v>0.218</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="2">
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="1">
         <v>44896</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="2">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>0.222</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="1">
         <v>44805</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="2">
         <v>0.185</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="3">
         <v>0.24399999999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="1">
         <v>44713</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>0.21199999999999999</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="2">
         <v>0.27400000000000002</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="1">
         <v>44621</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>0.247</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="2">
         <v>0.36399999999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="1">
         <v>44531</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="1">
         <v>44440</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="2">
         <v>0.26899999999999996</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="2">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="1">
         <v>44348</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="2">
         <v>0.27699999999999997</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>1.1000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="1">
         <v>44256</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="2">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="1">
         <v>44166</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="2">
         <v>0.29499999999999998</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="1">
         <v>44075</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="2">
         <v>0.28199999999999997</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="1">
         <v>43983</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="2">
         <v>0.28800000000000003</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="1">
         <v>43891</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="4">
         <v>0.252</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="4">
         <v>0.37</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="4">
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
@@ -15791,34 +14095,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46354D88-18BF-F247-955C-5BDC962B1B30}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="5">
         <v>43891</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>80.599999999999994</v>
       </c>
       <c r="C2">
@@ -15832,14 +14136,14 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="5">
         <v>43922</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <v>86.1</v>
       </c>
       <c r="C3">
@@ -15851,7 +14155,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="5">
         <v>43952</v>
       </c>
       <c r="B4">
@@ -15866,13 +14170,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="5">
         <v>43983</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="6">
         <v>89.8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="6">
         <v>116.4</v>
       </c>
       <c r="D5">
@@ -15881,13 +14185,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="5">
         <v>44013</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <v>91.8</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="6">
         <v>119.3</v>
       </c>
       <c r="D6">
@@ -15896,13 +14200,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="5">
         <v>44044</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="6">
         <v>88.1</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="6">
         <v>113.3</v>
       </c>
       <c r="D7">
@@ -15911,13 +14215,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="5">
         <v>44075</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <v>89.7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="6">
         <v>116.1</v>
       </c>
       <c r="D8">
@@ -15926,13 +14230,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="5">
         <v>44105</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <v>88.1</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>114.2</v>
       </c>
       <c r="D9">
@@ -15941,13 +14245,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="5">
         <v>44136</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="6">
         <v>90.4</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="6">
         <v>116.2</v>
       </c>
       <c r="D10">
@@ -15956,13 +14260,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="5">
         <v>44166</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="6">
         <v>91.8</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="6">
         <v>118</v>
       </c>
       <c r="D11">
@@ -15971,13 +14275,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="5">
         <v>44197</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>89.1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="6">
         <v>114.6</v>
       </c>
       <c r="D12">
@@ -15986,13 +14290,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="5">
         <v>44228</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <v>86.8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="6">
         <v>108</v>
       </c>
       <c r="D13">
@@ -16001,13 +14305,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="5">
         <v>44256</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>86.3</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="6">
         <v>111.3</v>
       </c>
       <c r="D14">
@@ -16016,13 +14320,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="5">
         <v>44287</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="6">
         <v>88.2</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="6">
         <v>113</v>
       </c>
       <c r="D15">
@@ -16031,13 +14335,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="5">
         <v>44317</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>90.9</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="6">
         <v>116.8</v>
       </c>
       <c r="D16">
@@ -16046,13 +14350,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="5">
         <v>44348</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="6">
         <v>89.7</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="6">
         <v>115.7</v>
       </c>
       <c r="D17">
@@ -16061,13 +14365,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="5">
         <v>44378</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="6">
         <v>94.2</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="6">
         <v>123.6</v>
       </c>
       <c r="D18">
@@ -16076,13 +14380,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="5">
         <v>44409</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="6">
         <v>95</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="6">
         <v>124.9</v>
       </c>
       <c r="D19">
@@ -16091,13 +14395,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="5">
         <v>44440</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="6">
         <v>91.2</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="6">
         <v>118.4</v>
       </c>
       <c r="D20">
@@ -16106,13 +14410,13 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+      <c r="A21" s="5">
         <v>44470</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="6">
         <v>96.4</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="6">
         <v>125.5</v>
       </c>
       <c r="D21">
@@ -16121,13 +14425,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+      <c r="A22" s="5">
         <v>44501</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="6">
         <v>100.4</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="6">
         <v>133.19999999999999</v>
       </c>
       <c r="D22">
@@ -16136,13 +14440,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="5">
         <v>44531</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="6">
         <v>95.3</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="6">
         <v>123.6</v>
       </c>
       <c r="D23">
@@ -16151,13 +14455,13 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="5">
         <v>44562</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="6">
         <v>92.7</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="6">
         <v>119.6</v>
       </c>
       <c r="D24">
@@ -16166,13 +14470,13 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+      <c r="A25" s="5">
         <v>44593</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="6">
         <v>91.3</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="6">
         <v>117</v>
       </c>
       <c r="D25">
@@ -16181,13 +14485,13 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+      <c r="A26" s="5">
         <v>44621</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="6">
         <v>90.4</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="6">
         <v>115.4</v>
       </c>
       <c r="D26">
@@ -16198,17 +14502,17 @@
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+      <c r="A27" s="5">
         <v>44652</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="6">
         <v>84.9</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="6">
         <v>107.1</v>
       </c>
       <c r="D27">
@@ -16217,13 +14521,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+      <c r="A28" s="5">
         <v>44682</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="6">
         <v>79.099999999999994</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="6">
         <v>98.4</v>
       </c>
       <c r="D28">
@@ -16232,13 +14536,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+      <c r="A29" s="5">
         <v>44713</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="6">
         <v>75.8</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="6">
         <v>91.2</v>
       </c>
       <c r="D29">
@@ -16248,18 +14552,18 @@
       <c r="F29">
         <v>7</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>63</v>
+      <c r="G29" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="5">
         <v>44743</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="6">
         <v>80</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="6">
         <v>96.7</v>
       </c>
       <c r="D30">
@@ -16268,13 +14572,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="A31" s="5">
         <v>44774</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="6">
         <v>73.8</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="6">
         <v>88.3</v>
       </c>
       <c r="D31">
@@ -16283,13 +14587,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="A32" s="5">
         <v>44805</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="6">
         <v>67</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="6">
         <v>79.5</v>
       </c>
       <c r="D32">
@@ -16300,17 +14604,17 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="A33" s="5">
         <v>44835</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="6">
         <v>65.900000000000006</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="6">
         <v>77.5</v>
       </c>
       <c r="D33">
@@ -16319,13 +14623,13 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="A34" s="5">
         <v>44866</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="6">
         <v>68.400000000000006</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="6">
         <v>80.7</v>
       </c>
       <c r="D34">
@@ -16334,13 +14638,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="A35" s="5">
         <v>44896</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="6">
         <v>66.400000000000006</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="6">
         <v>76.2</v>
       </c>
       <c r="D35">
@@ -16350,18 +14654,18 @@
       <c r="F35">
         <v>7</v>
       </c>
-      <c r="G35" s="16" t="s">
-        <v>63</v>
+      <c r="G35" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="5">
         <v>44927</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="6">
         <v>69.099999999999994</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="6">
         <v>79.599999999999994</v>
       </c>
       <c r="D36">
@@ -16370,13 +14674,13 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="A37" s="5">
         <v>44958</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="6">
         <v>65.3</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="6">
         <v>74.900000000000006</v>
       </c>
       <c r="D37">
@@ -16385,13 +14689,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="A38" s="5">
         <v>44986</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="6">
         <v>66.099999999999994</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="6">
         <v>77.5</v>
       </c>
       <c r="D38">
@@ -16401,8 +14705,8 @@
       <c r="F38">
         <v>8</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>64</v>
+      <c r="G38" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -16414,7 +14718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83566456-8360-034B-80F7-BB2DD0FCF5B5}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
